--- a/examples/scientific-events/scientific-events.xlsx
+++ b/examples/scientific-events/scientific-events.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,10 +498,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>event__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>event__title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>event__homepage</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>event__wikidataid</t>
         </is>
@@ -518,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,15 +544,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>eventSeries__description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>eventSeries__title</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>eventSeries__wikidataid</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>eventSeries__homepage</t>
         </is>

--- a/examples/scientific-events/scientific-events.xlsx
+++ b/examples/scientific-events/scientific-events.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventSeries" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Institution" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proceedings" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scholar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paper" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proceedings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scholar" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -615,7 +616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,12 +627,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>proceedings__wikidataid</t>
+          <t>paper__description</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>proceedings__title</t>
+          <t>paper__id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>paper__wikidataid</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>paper__title</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>paper__authors</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>paper__pdfUrl</t>
         </is>
       </c>
     </row>
@@ -657,12 +678,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>region__name</t>
+          <t>proceedings__wikidataid</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>region__wikidataid</t>
+          <t>proceedings__title</t>
         </is>
       </c>
     </row>
@@ -672,6 +693,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>region__name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>region__wikidataid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/examples/scientific-events/scientific-events.xlsx
+++ b/examples/scientific-events/scientific-events.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,26 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>event__wikidataid</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>event__series</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>event__city</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>event__country</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>event__region</t>
         </is>
       </c>
     </row>
@@ -575,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +622,11 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>institution__smartCRMId</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>institution__scholar</t>
         </is>
       </c>
     </row>

--- a/examples/scientific-events/scientific-events.xlsx
+++ b/examples/scientific-events/scientific-events.xlsx
@@ -4,18 +4,18 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventSeries" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Institution" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paper" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proceedings" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scholar" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventSeries" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proceedings" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scholar" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Institution" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paper" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,12 +432,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>city__name</t>
+          <t>acronym</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>city__wikidataid</t>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>wikidataid</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>homepage</t>
         </is>
       </c>
     </row>
@@ -447,6 +462,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>acronym</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>homepage</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>wikidataid</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -463,12 +544,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>country__name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>country__wikidataid</t>
+          <t>wikidataid</t>
         </is>
       </c>
     </row>
@@ -477,13 +558,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,47 +575,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>event__acronym</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>event__description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>event__title</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>event__homepage</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>event__wikidataid</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>event__series</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>event__city</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>event__country</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>event__region</t>
+          <t>wikidataid</t>
         </is>
       </c>
     </row>
@@ -543,7 +589,150 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>wikidataid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>wikidataid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>wikiDataId</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>firstName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>homepage</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>orcid</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dblpId</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>googleScholarUser</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>linkedInId</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>researchGate</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>gndId</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>smartCRMId</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -560,27 +749,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>eventSeries__acronym</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>eventSeries__description</t>
+          <t>wikidataid</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>eventSeries__title</t>
+          <t>homepage</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>eventSeries__wikidataid</t>
+          <t>smartCRMId</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>eventSeries__homepage</t>
+          <t>scholar</t>
         </is>
       </c>
     </row>
@@ -589,53 +778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>institution__title</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>institution__wikidataid</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>institution__homepage</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>institution__smartCRMId</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>institution__scholar</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -652,175 +795,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>paper__description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>paper__id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>paper__wikidataid</t>
+          <t>wikidataid</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>paper__title</t>
+          <t>title</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>paper__authors</t>
+          <t>authors</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>paper__pdfUrl</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>proceedings__wikidataid</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>proceedings__title</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>region__name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>region__wikidataid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>scholar__wikiDataId</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>scholar__name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>scholar__firstName</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>scholar__description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>scholar__homepage</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>scholar__orcid</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>scholar__dblpId</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>scholar__googleScholarUser</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>scholar__linkedInId</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>scholar__researchGate</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>scholar__gndId</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>scholar__smartCRMId</t>
+          <t>pdfUrl</t>
         </is>
       </c>
     </row>

--- a/examples/scientific-events/scientific-events.xlsx
+++ b/examples/scientific-events/scientific-events.xlsx
@@ -7,15 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventSeries" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proceedings" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scholar" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Institution" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paper" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WikidataItem" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WebWdItem" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventSeries" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proceedings" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scholar" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Institution" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paper" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -421,7 +423,146 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>wikidataid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>smartCRMId</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>scholar</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pdfUrl</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>homepage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,292 +578,206 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>acronym</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>firstName</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>orcid</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dblpId</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>wikidataid</t>
+          <t>googleScholarUser</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>homepage</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>acronym</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>homepage</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>wikidataid</t>
+          <t>linkedInId</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>researchGate</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>gndId</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>wikidataid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>wikidataid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>wikidataid</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>wikidataid</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>wikiDataId</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>firstName</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>homepage</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>orcid</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>dblpId</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>googleScholarUser</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>linkedInId</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>researchGate</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>gndId</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
           <t>smartCRMId</t>
         </is>
       </c>
@@ -730,101 +785,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>wikidataid</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>homepage</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>smartCRMId</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>scholar</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>wikidataid</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>pdfUrl</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>